--- a/workfile/锐安项目文档/锐安项目二期/bi/数据/工程售后数据问题汇总.xlsx
+++ b/workfile/锐安项目文档/锐安项目二期/bi/数据/工程售后数据问题汇总.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="1203">
   <si>
     <t>P20191184</t>
   </si>
@@ -3547,34 +3547,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>新家园中工程项目表中实施一级部门为空，实施二级部门为空。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新家园中工程项目表中相同项目编号对应不同的项目名称。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新家园中工程项目表，验收项目表中包含合同类型为空对应的数据。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应的工程项目及验收项目对应的项目在业绩记录基础表中不存在。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程项目对应完工里程碑重复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>项目名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3622,7 +3594,167 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>数据问题</t>
+  </si>
+  <si>
+    <t>新家园中工程项目表，验收项目表中包含合同类型为空对应的数据。</t>
+  </si>
+  <si>
+    <r>
+      <t>现检查后发现，工程项目中依旧存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条数据无合同类型，验收项目中有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>165</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条数据合同类型为空，其中工程的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条数据中存在一部分老数据无法给到合同类型，而验收项目中未曾进行修改。</t>
+    </r>
+  </si>
+  <si>
+    <t>新家园中工程项目表中相同项目编号对应不同的项目名称。</t>
+  </si>
+  <si>
+    <t>新家园中工程项目表中实施一级部门为空，实施二级部门为空。</t>
+  </si>
+  <si>
+    <t>对应的工程项目及验收项目对应的项目在业绩记录基础表中不存在。</t>
+  </si>
+  <si>
+    <t>在新家园工程项目的部分项目在老家园业绩记录基础表中不存在，取业绩金额时取为空。</t>
+  </si>
+  <si>
+    <t>工程项目对应完工里程碑重复</t>
+  </si>
+  <si>
+    <t>由于无法进入新家园正式环境，故仅能通过地层数据逻辑进行排查，在测试环境中，未发现此问题。</t>
+  </si>
+  <si>
     <t>验收项目对应验收里程碑重复</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>解决说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由有机体提出相关的协同，工程部门配合修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改进度说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>该部分只有两个项目编号重复，且为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年数据。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由bi方进行配置筛选表，表中包含type，pro_code，pro_name，表示由于何种原因需要筛除的数据，在进行页面数据处理时，将对应该问题的项目进行去除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上，部分数据仍需由工程部门进行录入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改逻辑为对应的重复里程碑若存在完成，即判定为完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通过etl修改，排除表为bi系统数据库中dw_ps_project_delete_info,通过排除手工在该表中维护项目，得到应该得到的正确结果。需提供相关的手工维护数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改etl逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3630,7 +3762,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3709,8 +3841,36 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEEECE1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3741,8 +3901,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F497D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -4126,29 +4292,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="3"/>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
       </left>
-      <right style="dashDot">
-        <color theme="3"/>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
       </right>
-      <top style="thick">
-        <color theme="3"/>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="dashDot">
-        <color theme="3"/>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
       </left>
-      <right style="thick">
-        <color theme="3"/>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
       </right>
-      <top style="thick">
-        <color theme="3"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -4157,7 +4338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4254,20 +4435,26 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4584,78 +4771,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34">
+        <v>1179</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+      <c r="B3" s="33" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38"/>
+      <c r="B4" s="34" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="37">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+      <c r="B5" s="33" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:4" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38"/>
+      <c r="B6" s="34" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+      <c r="B7" s="36" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="37">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="B8" s="33" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="34" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="37">
+        <v>5</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="34" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="37">
         <v>6</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="B12" s="33" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="34" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>1202</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14537,7 +14809,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -14545,27 +14817,27 @@
         <v>371</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>1052</v>
@@ -14576,13 +14848,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>1153</v>
@@ -14599,7 +14871,7 @@
         <v>874</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>1052</v>
@@ -14616,7 +14888,7 @@
         <v>832</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>1052</v>
@@ -14627,13 +14899,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1056</v>
@@ -14644,13 +14916,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>1053</v>
@@ -14661,13 +14933,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>1053</v>
@@ -14678,13 +14950,13 @@
     </row>
     <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>1053</v>
